--- a/ResultAnalysis/ResultAna0716.xlsx
+++ b/ResultAnalysis/ResultAna0716.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\ResultAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E9B4474A-AA90-4C9B-90DE-5E6456355A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61121633-BD7A-4317-965F-C04C55CAF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testModel_v94_2day_V940_CFD_NoD" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -363,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,7 +852,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1286,76 +1300,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>20972.910322816897</c:v>
+                  <c:v>44627.636651300032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19856.171749319939</c:v>
+                  <c:v>9521.8919440911468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18484.391825715025</c:v>
+                  <c:v>13157.422461024395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18565.967761073578</c:v>
+                  <c:v>14255.03273599219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19770.068294173081</c:v>
+                  <c:v>40519.669512622888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24056.676476469642</c:v>
+                  <c:v>32567.767583310735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47807.488361661322</c:v>
+                  <c:v>8274.3037347638729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61437.90154386426</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83553.257141610098</c:v>
+                  <c:v>28618.706035258871</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71368.32713397115</c:v>
+                  <c:v>34982.913037350336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19402.019126884421</c:v>
+                  <c:v>52073.43917024965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95934.235679987803</c:v>
+                  <c:v>37476.239039467437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10527.822654490295</c:v>
+                  <c:v>60492.923119169624</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77510.425751198753</c:v>
+                  <c:v>68226.676561439628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161956.78044927618</c:v>
+                  <c:v>69425.394099335244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2956.0942287567932</c:v>
+                  <c:v>37734.835154581087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19231.933451565867</c:v>
+                  <c:v>98410.779300963637</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96564.077053755755</c:v>
+                  <c:v>57018.188714439537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60186.151101255338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>129202.98228155542</c:v>
+                  <c:v>74030.322435476512</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35214.090246764688</c:v>
+                  <c:v>32781.340925677017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26678.944516668442</c:v>
+                  <c:v>39198.983001537985</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19081.625409641114</c:v>
+                  <c:v>19197.736537430326</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17856.30412318492</c:v>
+                  <c:v>23988.059963465133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,76 +2008,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>20972.910322816897</c:v>
+                  <c:v>44627.636651300032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19856.171749319939</c:v>
+                  <c:v>9521.8919440911468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18484.391825715025</c:v>
+                  <c:v>13157.422461024395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18565.967761073578</c:v>
+                  <c:v>14255.03273599219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19770.068294173081</c:v>
+                  <c:v>40519.669512622888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24056.676476469642</c:v>
+                  <c:v>32567.767583310735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47807.488361661322</c:v>
+                  <c:v>8274.3037347638729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61437.90154386426</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83553.257141610098</c:v>
+                  <c:v>28618.706035258871</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71368.32713397115</c:v>
+                  <c:v>34982.913037350336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19402.019126884421</c:v>
+                  <c:v>52073.43917024965</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95934.235679987803</c:v>
+                  <c:v>37476.239039467437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10527.822654490295</c:v>
+                  <c:v>60492.923119169624</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77510.425751198753</c:v>
+                  <c:v>68226.676561439628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161956.78044927618</c:v>
+                  <c:v>69425.394099335244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2956.0942287567932</c:v>
+                  <c:v>37734.835154581087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19231.933451565867</c:v>
+                  <c:v>98410.779300963637</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96564.077053755755</c:v>
+                  <c:v>57018.188714439537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>60186.151101255338</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>129202.98228155542</c:v>
+                  <c:v>74030.322435476512</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35214.090246764688</c:v>
+                  <c:v>32781.340925677017</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26678.944516668442</c:v>
+                  <c:v>39198.983001537985</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19081.625409641114</c:v>
+                  <c:v>19197.736537430326</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17856.30412318492</c:v>
+                  <c:v>23988.059963465133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,6 +2506,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1187997423"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3732,16 +3747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>536120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>146956</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4065,7 +4080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7769,11 +7784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" activeCellId="1" sqref="N1:O25 Q1:R25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7781,7 +7796,7 @@
     <col min="14" max="14" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -7883,13 +7898,20 @@
       </c>
       <c r="R2">
         <f>O2*T2</f>
-        <v>20972.910322816897</v>
-      </c>
-      <c r="T2" s="2">
-        <v>6058.0330221885897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+        <v>44627.636651300032</v>
+      </c>
+      <c r="T2" s="3">
+        <v>12890.709604650499</v>
+      </c>
+      <c r="V2" s="4">
+        <f>O2*W2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7941,13 +7963,20 @@
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R25" si="1">O3*T3</f>
-        <v>19856.171749319939</v>
-      </c>
-      <c r="T3" s="2">
-        <v>5735.4626658925299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+        <v>9521.8919440911468</v>
+      </c>
+      <c r="T3" s="3">
+        <v>2750.40206357341</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V25" si="2">O3*W3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -7999,13 +8028,20 @@
       </c>
       <c r="R4" s="2">
         <f t="shared" si="1"/>
-        <v>18484.391825715025</v>
-      </c>
-      <c r="T4" s="2">
-        <v>5339.2235198483604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+        <v>13157.422461024395</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3800.5264185512401</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -8057,13 +8093,20 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" si="1"/>
-        <v>18565.967761073578</v>
-      </c>
-      <c r="T5" s="2">
-        <v>5362.7867594088902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+        <v>14255.03273599219</v>
+      </c>
+      <c r="T5" s="3">
+        <v>4117.5715586343704</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8115,13 +8158,20 @@
       </c>
       <c r="R6" s="2">
         <f t="shared" si="1"/>
-        <v>19770.068294173081</v>
-      </c>
-      <c r="T6" s="2">
-        <v>5710.5916505410396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+        <v>40519.669512622888</v>
+      </c>
+      <c r="T6" s="3">
+        <v>11704.1217540794</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -8173,13 +8223,20 @@
       </c>
       <c r="R7" s="2">
         <f t="shared" si="1"/>
-        <v>24056.676476469642</v>
-      </c>
-      <c r="T7" s="2">
-        <v>6948.7800336422997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+        <v>32567.767583310735</v>
+      </c>
+      <c r="T7" s="3">
+        <v>9407.2118958147694</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -8231,13 +8288,20 @@
       </c>
       <c r="R8" s="2">
         <f t="shared" si="1"/>
-        <v>47807.488361661322</v>
-      </c>
-      <c r="T8" s="2">
-        <v>8183.4112224685596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+        <v>8274.3037347638729</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1416.34778068536</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8289,13 +8353,20 @@
       </c>
       <c r="R9" s="2">
         <f t="shared" si="1"/>
-        <v>61437.90154386426</v>
-      </c>
-      <c r="T9" s="2">
-        <v>10516.587049617299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -8347,13 +8418,20 @@
       </c>
       <c r="R10" s="2">
         <f t="shared" si="1"/>
-        <v>83553.257141610098</v>
-      </c>
-      <c r="T10" s="2">
-        <v>14302.1665767905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+        <v>28618.706035258871</v>
+      </c>
+      <c r="T10" s="3">
+        <v>4898.7856958676603</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="2"/>
+        <v>63917.544839630944</v>
+      </c>
+      <c r="W10" s="5">
+        <v>10941.038144407899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -8405,13 +8483,20 @@
       </c>
       <c r="R11" s="2">
         <f t="shared" si="1"/>
-        <v>71368.32713397115</v>
-      </c>
-      <c r="T11" s="2">
-        <v>12216.420255729399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+        <v>34982.913037350336</v>
+      </c>
+      <c r="T11" s="3">
+        <v>5988.1740906111499</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="2"/>
+        <v>60632.4456656373</v>
+      </c>
+      <c r="W11" s="5">
+        <v>10378.713739410699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -8463,13 +8548,20 @@
       </c>
       <c r="R12" s="2">
         <f t="shared" si="1"/>
-        <v>19402.019126884421</v>
-      </c>
-      <c r="T12" s="2">
-        <v>3321.1261771455702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+        <v>52073.43917024965</v>
+      </c>
+      <c r="T12" s="3">
+        <v>8913.6321756675206</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="2"/>
+        <v>76353.210678020347</v>
+      </c>
+      <c r="W12" s="5">
+        <v>13069.7039845978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -8521,13 +8613,20 @@
       </c>
       <c r="R13" s="2">
         <f t="shared" si="1"/>
-        <v>95934.235679987803</v>
-      </c>
-      <c r="T13" s="2">
-        <v>16421.4713591215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+        <v>37476.239039467437</v>
+      </c>
+      <c r="T13" s="3">
+        <v>6414.9673124730298</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="2"/>
+        <v>57822.232227915629</v>
+      </c>
+      <c r="W13" s="5">
+        <v>9897.6775467161297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -8579,13 +8678,20 @@
       </c>
       <c r="R14" s="2">
         <f t="shared" si="1"/>
-        <v>10527.822654490295</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1802.09220378129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+        <v>60492.923119169624</v>
+      </c>
+      <c r="T14" s="3">
+        <v>10354.8310714087</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="2"/>
+        <v>79946.619713635097</v>
+      </c>
+      <c r="W14" s="5">
+        <v>13684.803100588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -8637,13 +8743,20 @@
       </c>
       <c r="R15" s="2">
         <f t="shared" si="1"/>
-        <v>77510.425751198753</v>
-      </c>
-      <c r="T15" s="2">
-        <v>13267.7894130775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+        <v>68226.676561439628</v>
+      </c>
+      <c r="T15" s="3">
+        <v>11678.650558274499</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="2"/>
+        <v>79943.447937733639</v>
+      </c>
+      <c r="W15" s="5">
+        <v>13684.2601742098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -8695,13 +8808,20 @@
       </c>
       <c r="R16" s="2">
         <f t="shared" si="1"/>
-        <v>161956.78044927618</v>
-      </c>
-      <c r="T16" s="2">
-        <v>27722.831299088699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+        <v>69425.394099335244</v>
+      </c>
+      <c r="T16" s="3">
+        <v>11883.8401402491</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="2"/>
+        <v>78664.66466738419</v>
+      </c>
+      <c r="W16" s="5">
+        <v>13465.3654001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -8753,13 +8873,20 @@
       </c>
       <c r="R17" s="2">
         <f t="shared" si="1"/>
-        <v>2956.0942287567932</v>
-      </c>
-      <c r="T17" s="2">
-        <v>284.84238087847302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+        <v>37734.835154581087</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3636.0411596243098</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="2"/>
+        <v>74988.537385815158</v>
+      </c>
+      <c r="W17" s="5">
+        <v>7225.72146712422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -8811,13 +8938,20 @@
       </c>
       <c r="R18" s="2">
         <f t="shared" si="1"/>
-        <v>19231.933451565867</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1853.1444836737201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+        <v>98410.779300963637</v>
+      </c>
+      <c r="T18" s="3">
+        <v>9482.6343516056695</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="2"/>
+        <v>126791.51707347253</v>
+      </c>
+      <c r="W18" s="5">
+        <v>12217.3363917395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -8869,13 +9003,20 @@
       </c>
       <c r="R19" s="2">
         <f t="shared" si="1"/>
-        <v>96564.077053755755</v>
-      </c>
-      <c r="T19" s="2">
-        <v>9304.6904079548804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <v>57018.188714439537</v>
+      </c>
+      <c r="T19" s="3">
+        <v>5494.1403656233897</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="2"/>
+        <v>79971.037768060458</v>
+      </c>
+      <c r="W19" s="5">
+        <v>7705.82364309698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -8927,13 +9068,20 @@
       </c>
       <c r="R20" s="2">
         <f t="shared" si="1"/>
-        <v>60186.151101255338</v>
-      </c>
-      <c r="T20" s="2">
-        <v>5799.3978706162397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -8985,13 +9133,20 @@
       </c>
       <c r="R21" s="2">
         <f t="shared" si="1"/>
-        <v>129202.98228155542</v>
-      </c>
-      <c r="T21" s="2">
-        <v>12449.6995838847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+        <v>74030.322435476512</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7133.3900978489601</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="2"/>
+        <v>89836.673997245758</v>
+      </c>
+      <c r="W21" s="5">
+        <v>8656.4534589753093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -9043,13 +9198,20 @@
       </c>
       <c r="R22" s="2">
         <f t="shared" si="1"/>
-        <v>35214.090246764688</v>
-      </c>
-      <c r="T22" s="2">
-        <v>6027.7456772962496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+        <v>32781.340925677017</v>
+      </c>
+      <c r="T22" s="3">
+        <v>5611.3216237037004</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="2"/>
+        <v>40728.439502698217</v>
+      </c>
+      <c r="W22" s="5">
+        <v>6971.6603051520397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -9101,13 +9263,20 @@
       </c>
       <c r="R23" s="2">
         <f t="shared" si="1"/>
-        <v>26678.944516668442</v>
-      </c>
-      <c r="T23" s="2">
-        <v>4566.7484622849097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+        <v>39198.983001537985</v>
+      </c>
+      <c r="T23" s="3">
+        <v>6709.8567274115003</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="2"/>
+        <v>47245.103420432744</v>
+      </c>
+      <c r="W23" s="5">
+        <v>8087.1453989100901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -9159,13 +9328,20 @@
       </c>
       <c r="R24" s="2">
         <f t="shared" si="1"/>
-        <v>19081.625409641114</v>
-      </c>
-      <c r="T24" s="2">
-        <v>5511.7346648298999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+        <v>19197.736537430326</v>
+      </c>
+      <c r="T24" s="3">
+        <v>5545.2734076921797</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="2"/>
+        <v>23868.512441780629</v>
+      </c>
+      <c r="W24" s="5">
+        <v>6894.4287815657499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -9217,20 +9393,31 @@
       </c>
       <c r="R25" s="2">
         <f t="shared" si="1"/>
-        <v>17856.30412318492</v>
-      </c>
-      <c r="T25" s="2">
-        <v>5157.8001511221601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+        <v>23988.059963465133</v>
+      </c>
+      <c r="T25" s="3">
+        <v>6928.9601280950701</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="2"/>
+        <v>29180.631565324802</v>
+      </c>
+      <c r="W25" s="5">
+        <v>8428.8363851313698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="Q26">
         <f>SUM(Q2:Q25)</f>
         <v>1227899.9903083725</v>
       </c>
       <c r="R26" s="2">
         <f>SUM(R2:R25)</f>
-        <v>1158176.6466856608</v>
+        <v>896580.26171894709</v>
+      </c>
+      <c r="V26">
+        <f>SUM(V2:V25)</f>
+        <v>1009890.6188847874</v>
       </c>
     </row>
   </sheetData>
@@ -9240,7 +9427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ResultAnalysis/ResultAna0716.xlsx
+++ b/ResultAnalysis/ResultAna0716.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\ResultAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61121633-BD7A-4317-965F-C04C55CAF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606922F-F63C-42B7-BF30-7ECD3D8A0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,7 +852,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1007,80 +1009,65 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$25</c:f>
+              <c:f>Sheet1!$N$7:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1088,81 +1075,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$25</c:f>
+              <c:f>Sheet1!$Q$7:$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>19715.812455456809</c:v>
+                  <c:v>22707.308379800459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20227.61646862411</c:v>
+                  <c:v>50278.838062631417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19805.245728023663</c:v>
+                  <c:v>55582.078865943622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16861.448525060969</c:v>
+                  <c:v>52956.061048057512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18254.967009436979</c:v>
+                  <c:v>58966.838911566134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22707.308379800459</c:v>
+                  <c:v>64891.949575564766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50278.838062631417</c:v>
+                  <c:v>73447.814003775624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55582.078865943622</c:v>
+                  <c:v>76267.423175557589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52956.061048057512</c:v>
+                  <c:v>68918.074462455639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58966.838911566134</c:v>
+                  <c:v>67917.29417340747</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64891.949575564766</c:v>
+                  <c:v>111583.43551209867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73447.814003775624</c:v>
+                  <c:v>97959.170998328627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76267.423175557589</c:v>
+                  <c:v>89743.501020315933</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68918.074462455639</c:v>
+                  <c:v>83705.084520110162</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67917.29417340747</c:v>
+                  <c:v>68110.308813984753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111583.43551209867</c:v>
+                  <c:v>27170.844351024323</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97959.170998328627</c:v>
+                  <c:v>26776.891230653942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89743.501020315933</c:v>
+                  <c:v>17557.069626987362</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83705.084520110162</c:v>
+                  <c:v>18494.913389505764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68110.308813984753</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27170.844351024323</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26776.891230653942</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17557.069626987362</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18494.913389505764</c:v>
+                  <c:v>1227899.9903083725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,80 +1189,65 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$25</c:f>
+              <c:f>Sheet1!$N$7:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1295,81 +1255,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$25</c:f>
+              <c:f>Sheet1!$R$7:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>44627.636651300032</c:v>
+                  <c:v>32567.767583310735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9521.8919440911468</c:v>
+                  <c:v>8274.3037347638729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13157.422461024395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14255.03273599219</c:v>
+                  <c:v>28618.706035258871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40519.669512622888</c:v>
+                  <c:v>34982.913037350336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32567.767583310735</c:v>
+                  <c:v>52073.43917024965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8274.3037347638729</c:v>
+                  <c:v>37476.239039467437</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>60492.923119169624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68226.676561439628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69425.394099335244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37734.835154581087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98410.779300963637</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57018.188714439537</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>28618.706035258871</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34982.913037350336</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52073.43917024965</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37476.239039467437</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60492.923119169624</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68226.676561439628</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>69425.394099335244</c:v>
+                  <c:v>74030.322435476512</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37734.835154581087</c:v>
+                  <c:v>32781.340925677017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98410.779300963637</c:v>
+                  <c:v>39198.983001537985</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57018.188714439537</c:v>
+                  <c:v>19197.736537430326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>23988.059963465133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74030.322435476512</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32781.340925677017</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>39198.983001537985</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19197.736537430326</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23988.059963465133</c:v>
+                  <c:v>896580.26171894709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,6 +1549,1955 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.5736974703334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.629711100051999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.633259616438199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.629079272341901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.632022812153799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.669893778317999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9054883912214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.136374176369699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.194670057204799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.2619010942506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.612542577339301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.175120875126201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.568008765952499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.369282236693898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.087427635056699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.607788079833401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.031515617186699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.9952000903277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.006250345308199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.886931161977099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.673665854409599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.623634693281002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.588755352415099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.559137787703399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4599-4779-B9DB-BF2A4615FC11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="766601248"/>
+        <c:axId val="766601664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="766601248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766601664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="766601664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766601248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.347021676746699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.156825643785801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2432682067776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.257273757691401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9248269315298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.438845152450401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.670015457651299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3806360268361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.109500148175101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.751952312880601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.296194226559098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.068551468064101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.5961756302036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3458392344738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.967448620919601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.858359400616699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.4505582317029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.943898781147599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.879667780817901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.785491966662299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.3608585350777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.107556715919699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.914802370128999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.746935353476399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A648-47B3-9057-E7BBBDCFF26F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.5736974703334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.629711100051999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.633259616438199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.629079272341901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.632022812153799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.669893778317999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9054883912214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.136374176369699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.194670057204799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.2619010942506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.612542577339301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.175120875126201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.568008765952499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.369282236693898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.087427635056699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.607788079833401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.031515617186699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.9952000903277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.006250345308199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.886931161977099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.673665854409599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.623634693281002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.588755352415099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.559137787703399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A648-47B3-9057-E7BBBDCFF26F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="772998224"/>
+        <c:axId val="765649872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="772998224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765649872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765649872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772998224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.347021676746699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.156825643785801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2432682067776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.257273757691401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9248269315298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.438845152450401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.670015457651299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3806360268361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.109500148175101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.751952312880601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.296194226559098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.068551468064101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.5961756302036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3458392344738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.967448620919601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.858359400616699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.4505582317029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.943898781147599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.879667780817901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.785491966662299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.3608585350777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.107556715919699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.914802370128999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.746935353476399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B04-4F16-A470-AF37C6BD8ECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.5736974703334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.629711100051999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.633259616438199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.629079272341901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.632022812153799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.669893778317999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9054883912214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.136374176369699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.194670057204799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.2619010942506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.612542577339301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.175120875126201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.568008765952499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.369282236693898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.087427635056699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.607788079833401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.031515617186699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.9952000903277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.006250345308199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.886931161977099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.673665854409599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.623634693281002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.588755352415099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.559137787703399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B04-4F16-A470-AF37C6BD8ECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B04-4F16-A470-AF37C6BD8ECA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="777505808"/>
+        <c:axId val="777506224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="777505808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777506224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="777506224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777505808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2595,6 +4492,440 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.347021676746699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.156825643785801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2432682067776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.257273757691401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9248269315298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.438845152450401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.670015457651299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3806360268361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.109500148175101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.751952312880601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.296194226559098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.068551468064101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.5961756302036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3458392344738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.967448620919601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.858359400616699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.4505582317029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.943898781147599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.879667780817901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.785491966662299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.3608585350777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.107556715919699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.914802370128999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.746935353476399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FD4-43E0-ABAF-80F0F4D17AB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="673402560"/>
+        <c:axId val="673400896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="673402560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673400896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="673400896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673402560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2675,6 +5006,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3192,6 +5683,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3747,16 +8302,124 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340176</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>487132</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>593270</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C939EB2-4B27-4C89-933E-26F4112CAC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>307521</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>92527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>307521</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D936933C-B10F-4A4A-B00E-A4CBDAA196EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>383721</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>92528</xdr:rowOff>
+      <xdr:colOff>383721</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7226DDD9-84C3-4F8D-9D73-19B57788E3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>650420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3775,7 +8438,43 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372832</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C18505-6400-4EC9-8EF4-33C4D9E519FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7785,10 +12484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W25"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7796,7 +12495,7 @@
     <col min="14" max="14" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7846,7 +12545,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -7910,8 +12609,20 @@
       <c r="W2" s="5">
         <v>0</v>
       </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>19.347021676746699</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>21.5736974703334</v>
+      </c>
+      <c r="AB2">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -7975,8 +12686,20 @@
       <c r="W3" s="5">
         <v>0</v>
       </c>
+      <c r="Y3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>19.156825643785801</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>21.629711100051999</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -8040,8 +12763,20 @@
       <c r="W4" s="5">
         <v>0</v>
       </c>
+      <c r="Y4" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>19.2432682067776</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>21.633259616438199</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -8105,8 +12840,20 @@
       <c r="W5" s="5">
         <v>0</v>
       </c>
+      <c r="Y5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>19.257273757691401</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>21.629079272341901</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8170,8 +12917,20 @@
       <c r="W6" s="5">
         <v>0</v>
       </c>
+      <c r="Y6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>18.9248269315298</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>21.632022812153799</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -8235,8 +12994,20 @@
       <c r="W7" s="5">
         <v>0</v>
       </c>
+      <c r="Y7" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>18.438845152450401</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>21.669893778317999</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -8300,8 +13071,20 @@
       <c r="W8" s="5">
         <v>0</v>
       </c>
+      <c r="Y8" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>18.670015457651299</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>21.9054883912214</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8365,8 +13148,20 @@
       <c r="W9" s="5">
         <v>0</v>
       </c>
+      <c r="Y9" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>19.3806360268361</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>22.136374176369699</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -8430,8 +13225,20 @@
       <c r="W10" s="5">
         <v>10941.038144407899</v>
       </c>
+      <c r="Y10" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>20.109500148175101</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>22.194670057204799</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -8495,8 +13302,20 @@
       <c r="W11" s="5">
         <v>10378.713739410699</v>
       </c>
+      <c r="Y11" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>20.751952312880601</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>22.2619010942506</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -8560,8 +13379,20 @@
       <c r="W12" s="5">
         <v>13069.7039845978</v>
       </c>
+      <c r="Y12" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>21.296194226559098</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>22.612542577339301</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -8625,8 +13456,20 @@
       <c r="W13" s="5">
         <v>9897.6775467161297</v>
       </c>
+      <c r="Y13" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>22.068551468064101</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>23.175120875126201</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -8690,8 +13533,20 @@
       <c r="W14" s="5">
         <v>13684.803100588</v>
       </c>
+      <c r="Y14" s="6">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>22.5961756302036</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>23.568008765952499</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -8755,8 +13610,20 @@
       <c r="W15" s="5">
         <v>13684.2601742098</v>
       </c>
+      <c r="Y15" s="6">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>22.3458392344738</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>23.369282236693898</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -8820,8 +13687,20 @@
       <c r="W16" s="5">
         <v>13465.3654001</v>
       </c>
+      <c r="Y16" s="6">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>21.967448620919601</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>23.087427635056699</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -8885,8 +13764,20 @@
       <c r="W17" s="5">
         <v>7225.72146712422</v>
       </c>
+      <c r="Y17" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>21.858359400616699</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>22.607788079833401</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -8950,8 +13841,20 @@
       <c r="W18" s="5">
         <v>12217.3363917395</v>
       </c>
+      <c r="Y18" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>21.4505582317029</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>22.031515617186699</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -9015,8 +13918,20 @@
       <c r="W19" s="5">
         <v>7705.82364309698</v>
       </c>
+      <c r="Y19" s="6">
+        <v>18</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>20.943898781147599</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>21.9952000903277</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -9080,8 +13995,20 @@
       <c r="W20" s="5">
         <v>0</v>
       </c>
+      <c r="Y20" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>20.879667780817901</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>22.006250345308199</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -9145,8 +14072,20 @@
       <c r="W21" s="5">
         <v>8656.4534589753093</v>
       </c>
+      <c r="Y21" s="6">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>20.785491966662299</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>21.886931161977099</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -9210,8 +14149,20 @@
       <c r="W22" s="5">
         <v>6971.6603051520397</v>
       </c>
+      <c r="Y22" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>20.3608585350777</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>21.673665854409599</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>24</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -9275,8 +14226,20 @@
       <c r="W23" s="5">
         <v>8087.1453989100901</v>
       </c>
+      <c r="Y23" s="6">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>20.107556715919699</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>21.623634693281002</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -9340,8 +14303,20 @@
       <c r="W24" s="5">
         <v>6894.4287815657499</v>
       </c>
+      <c r="Y24" s="6">
+        <v>23</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>19.914802370128999</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>21.588755352415099</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -9405,8 +14380,20 @@
       <c r="W25" s="5">
         <v>8428.8363851313698</v>
       </c>
+      <c r="Y25" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>19.746935353476399</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>21.559137787703399</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="Q26">
         <f>SUM(Q2:Q25)</f>
         <v>1227899.9903083725</v>

--- a/ResultAnalysis/ResultAna0716.xlsx
+++ b/ResultAnalysis/ResultAna0716.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\ResultAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D606922F-F63C-42B7-BF30-7ECD3D8A0386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B9DD67-EE98-45FE-AE2F-28877E92277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8339,15 +8339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>307521</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>92527</xdr:rowOff>
+      <xdr:colOff>389164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>307521</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>59870</xdr:rowOff>
+      <xdr:colOff>389164</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8446,16 +8446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>372832</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>157841</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>193218</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>538839</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>125184</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>359225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12486,8 +12486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23:AB25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/ResultAnalysis/ResultAna0716.xlsx
+++ b/ResultAnalysis/ResultAna0716.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\ResultAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B9DD67-EE98-45FE-AE2F-28877E92277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF9C66C-A42C-48B0-ABC4-EBD33EA77CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testModel_v94_2day_V940_CFD_NoD" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>Date/Time</t>
   </si>
@@ -369,6 +370,18 @@
   </si>
   <si>
     <t>Baseline model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opt Result </t>
+  </si>
+  <si>
+    <t>Ref case</t>
+  </si>
+  <si>
+    <t>Setpoint</t>
+  </si>
+  <si>
+    <t>&gt;12</t>
   </si>
 </sst>
 </file>
@@ -4926,6 +4939,689 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt Result </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.347021676746699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.156825643785801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2432682067776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.257273757691401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.9248269315298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.438845152450401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.670015457651299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3806360268361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.109500148175101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.751952312880601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.296194226559098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.068551468064101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.5961756302036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3458392344738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.967448620919601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.858359400616699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.4505582317029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.943898781147599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.879667780817901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.785491966662299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.3608585350777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.107556715919699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.914802370128999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.746935353476399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C00-46A9-9D4E-435A2CA55AF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ref case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.5736974703334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.629711100051999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.633259616438199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.629079272341901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.632022812153799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.669893778317999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.9054883912214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.136374176369699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.194670057204799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.2619010942506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.612542577339301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.175120875126201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.568008765952499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.369282236693898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.087427635056699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.607788079833401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.031515617186699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.9952000903277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.006250345308199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.886931161977099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.673665854409599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.623634693281002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.588755352415099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.559137787703399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C00-46A9-9D4E-435A2CA55AF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1083392559"/>
+        <c:axId val="1083388815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1083392559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1083388815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1083388815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1083392559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5166,6 +5862,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7747,6 +8483,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8302,16 +9554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>487132</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>291189</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>593270</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>397327</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8475,6 +9727,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>536120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>536120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3797A3F7-0AE3-4C9F-82B8-AE9C4799CDC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12486,8 +13774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O25"/>
+    <sheetView topLeftCell="R10" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -12544,6 +13832,12 @@
       <c r="R1" t="s">
         <v>110</v>
       </c>
+      <c r="Z1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -14414,6 +15708,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E58BAB-5F69-41F4-B271-1FC426DA5E6C}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
